--- a/sg02/Assets/Resources/Config/Excel/City.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,181 @@
   <si>
     <t>合肥</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨伐董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群雄割据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤壁之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国鼎立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘焉</t>
+  </si>
+  <si>
+    <t>刘焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩馥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶谦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔岫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘繇</t>
+  </si>
+  <si>
+    <t>严白虎</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔瑁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>孙权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘璋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彻里吉</t>
   </si>
 </sst>
 </file>
@@ -750,15 +925,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,13 +965,28 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -810,13 +1009,28 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -844,8 +1058,23 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -859,22 +1088,28 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="G4">
-        <v>10000</v>
+        <v>83500</v>
       </c>
       <c r="H4">
-        <v>5000</v>
+        <v>380</v>
       </c>
       <c r="I4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2800</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -888,22 +1123,37 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="G5">
-        <v>10000</v>
+        <v>111361</v>
       </c>
       <c r="H5">
-        <v>5000</v>
+        <v>292</v>
       </c>
       <c r="I5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3018</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -920,19 +1170,34 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G6">
-        <v>10000</v>
+        <v>186000</v>
       </c>
       <c r="H6">
-        <v>5000</v>
+        <v>316</v>
       </c>
       <c r="I6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3645</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -946,22 +1211,28 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G7">
-        <v>10000</v>
+        <v>95500</v>
       </c>
       <c r="H7">
-        <v>5000</v>
+        <v>319</v>
       </c>
       <c r="I7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2966</v>
+      </c>
+      <c r="M7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -975,22 +1246,37 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="G8">
-        <v>10000</v>
+        <v>391200</v>
       </c>
       <c r="H8">
-        <v>5000</v>
+        <v>401</v>
       </c>
       <c r="I8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>5040</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1004,22 +1290,37 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G9">
-        <v>10000</v>
+        <v>350500</v>
       </c>
       <c r="H9">
-        <v>5000</v>
+        <v>295</v>
       </c>
       <c r="I9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4800</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1036,19 +1337,34 @@
         <v>8</v>
       </c>
       <c r="F10">
+        <v>201</v>
+      </c>
+      <c r="G10">
+        <v>228900</v>
+      </c>
+      <c r="H10">
+        <v>386</v>
+      </c>
+      <c r="I10">
+        <v>3832</v>
+      </c>
+      <c r="J10" t="s">
         <v>100</v>
       </c>
-      <c r="G10">
-        <v>10000</v>
-      </c>
-      <c r="H10">
-        <v>5000</v>
-      </c>
-      <c r="I10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1062,22 +1378,37 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="G11">
-        <v>10000</v>
+        <v>136900</v>
       </c>
       <c r="H11">
-        <v>5000</v>
+        <v>365</v>
       </c>
       <c r="I11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3150</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1094,19 +1425,34 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="G12">
-        <v>10000</v>
+        <v>177000</v>
       </c>
       <c r="H12">
-        <v>5000</v>
+        <v>227</v>
       </c>
       <c r="I12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3577</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1123,19 +1469,34 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="G13">
-        <v>10000</v>
+        <v>224000</v>
       </c>
       <c r="H13">
-        <v>5000</v>
+        <v>202</v>
       </c>
       <c r="I13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3930</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1149,22 +1510,37 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G14">
-        <v>10000</v>
+        <v>313500</v>
       </c>
       <c r="H14">
-        <v>5000</v>
+        <v>406</v>
       </c>
       <c r="I14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4601</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1178,22 +1554,37 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="G15">
-        <v>10000</v>
+        <v>142000</v>
       </c>
       <c r="H15">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="I15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3315</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1207,22 +1598,37 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="G16">
-        <v>10000</v>
+        <v>364000</v>
       </c>
       <c r="H16">
-        <v>5000</v>
+        <v>503</v>
       </c>
       <c r="I16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4930</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1236,22 +1642,25 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G17">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H17">
-        <v>5000</v>
+        <v>258</v>
       </c>
       <c r="I17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1265,22 +1674,31 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="G18">
-        <v>10000</v>
+        <v>148400</v>
       </c>
       <c r="H18">
-        <v>5000</v>
+        <v>468</v>
       </c>
       <c r="I18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3221</v>
+      </c>
+      <c r="L18" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1297,19 +1715,34 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="G19">
-        <v>10000</v>
+        <v>189530</v>
       </c>
       <c r="H19">
-        <v>5000</v>
+        <v>617</v>
       </c>
       <c r="I19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3491</v>
+      </c>
+      <c r="J19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1323,22 +1756,31 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="G20">
-        <v>10000</v>
+        <v>168500</v>
       </c>
       <c r="H20">
-        <v>5000</v>
+        <v>146</v>
       </c>
       <c r="I20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3513</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1355,19 +1797,31 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="G21">
-        <v>10000</v>
+        <v>196500</v>
       </c>
       <c r="H21">
-        <v>5000</v>
+        <v>101</v>
       </c>
       <c r="I21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3723</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1381,22 +1835,34 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="G22">
-        <v>10000</v>
+        <v>329000</v>
       </c>
       <c r="H22">
-        <v>5000</v>
+        <v>444</v>
       </c>
       <c r="I22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4717</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1410,22 +1876,34 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="G23">
-        <v>10000</v>
+        <v>259500</v>
       </c>
       <c r="H23">
-        <v>5000</v>
+        <v>312</v>
       </c>
       <c r="I23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1439,22 +1917,31 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G24">
-        <v>10000</v>
+        <v>276000</v>
       </c>
       <c r="H24">
-        <v>5000</v>
+        <v>148</v>
       </c>
       <c r="I24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4320</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1468,22 +1955,34 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="G25">
-        <v>10000</v>
+        <v>337000</v>
       </c>
       <c r="H25">
-        <v>5000</v>
+        <v>268</v>
       </c>
       <c r="I25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4777</v>
+      </c>
+      <c r="J25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1497,22 +1996,34 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="G26">
-        <v>10000</v>
+        <v>301261</v>
       </c>
       <c r="H26">
-        <v>5000</v>
+        <v>520</v>
       </c>
       <c r="I26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3892</v>
+      </c>
+      <c r="J26" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" t="s">
+        <v>107</v>
+      </c>
+      <c r="N26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1526,22 +2037,34 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="G27">
-        <v>10000</v>
+        <v>381355</v>
       </c>
       <c r="H27">
-        <v>5000</v>
+        <v>373</v>
       </c>
       <c r="I27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>5051</v>
+      </c>
+      <c r="K27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" t="s">
+        <v>107</v>
+      </c>
+      <c r="N27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1555,22 +2078,25 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="G28">
-        <v>10000</v>
+        <v>266500</v>
       </c>
       <c r="H28">
-        <v>5000</v>
+        <v>207</v>
       </c>
       <c r="I28">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4248</v>
+      </c>
+      <c r="N28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1584,22 +2110,34 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="G29">
-        <v>10000</v>
+        <v>143959</v>
       </c>
       <c r="H29">
-        <v>5000</v>
+        <v>259</v>
       </c>
       <c r="I29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3292</v>
+      </c>
+      <c r="K29" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" t="s">
+        <v>110</v>
+      </c>
+      <c r="N29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1613,22 +2151,31 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="G30">
-        <v>10000</v>
+        <v>266967</v>
       </c>
       <c r="H30">
-        <v>5000</v>
+        <v>380</v>
       </c>
       <c r="I30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4083</v>
+      </c>
+      <c r="K30" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1642,22 +2189,31 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="G31">
-        <v>10000</v>
+        <v>117000</v>
       </c>
       <c r="H31">
-        <v>5000</v>
+        <v>170</v>
       </c>
       <c r="I31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3127</v>
+      </c>
+      <c r="L31" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1671,22 +2227,34 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="G32">
-        <v>10000</v>
+        <v>256757</v>
       </c>
       <c r="H32">
-        <v>5000</v>
+        <v>345</v>
       </c>
       <c r="I32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4046</v>
+      </c>
+      <c r="K32" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" t="s">
+        <v>110</v>
+      </c>
+      <c r="N32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1703,19 +2271,25 @@
         <v>8</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="G33">
-        <v>10000</v>
+        <v>179000</v>
       </c>
       <c r="H33">
-        <v>5000</v>
+        <v>124</v>
       </c>
       <c r="I33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3592</v>
+      </c>
+      <c r="L33" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1732,19 +2306,19 @@
         <v>8</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="G34">
-        <v>10000</v>
+        <v>234500</v>
       </c>
       <c r="H34">
-        <v>5000</v>
+        <v>131</v>
       </c>
       <c r="I34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1758,22 +2332,31 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="G35">
-        <v>10000</v>
+        <v>164500</v>
       </c>
       <c r="H35">
-        <v>5000</v>
+        <v>175</v>
       </c>
       <c r="I35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3483</v>
+      </c>
+      <c r="J35" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1787,22 +2370,34 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="G36">
-        <v>10000</v>
+        <v>346439</v>
       </c>
       <c r="H36">
-        <v>5000</v>
+        <v>589</v>
       </c>
       <c r="I36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4612</v>
+      </c>
+      <c r="K36" t="s">
+        <v>105</v>
+      </c>
+      <c r="L36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M36" t="s">
+        <v>120</v>
+      </c>
+      <c r="N36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1816,22 +2411,34 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="G37">
-        <v>10000</v>
+        <v>251078</v>
       </c>
       <c r="H37">
-        <v>5000</v>
+        <v>357</v>
       </c>
       <c r="I37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4057</v>
+      </c>
+      <c r="J37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" t="s">
+        <v>106</v>
+      </c>
+      <c r="M37" t="s">
+        <v>120</v>
+      </c>
+      <c r="N37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1845,22 +2452,31 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="G38">
-        <v>10000</v>
+        <v>153829</v>
       </c>
       <c r="H38">
-        <v>5000</v>
+        <v>195</v>
       </c>
       <c r="I38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3341</v>
+      </c>
+      <c r="K38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" t="s">
+        <v>119</v>
+      </c>
+      <c r="M38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1877,19 +2493,28 @@
         <v>8</v>
       </c>
       <c r="F39">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="G39">
-        <v>10000</v>
+        <v>201539</v>
       </c>
       <c r="H39">
-        <v>5000</v>
+        <v>308</v>
       </c>
       <c r="I39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3573</v>
+      </c>
+      <c r="L39" t="s">
+        <v>119</v>
+      </c>
+      <c r="M39" t="s">
+        <v>120</v>
+      </c>
+      <c r="N39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1903,22 +2528,31 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="G40">
-        <v>10000</v>
+        <v>245753</v>
       </c>
       <c r="H40">
-        <v>5000</v>
+        <v>353</v>
       </c>
       <c r="I40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3881</v>
+      </c>
+      <c r="L40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1935,19 +2569,25 @@
         <v>8</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="G41">
-        <v>10000</v>
+        <v>185500</v>
       </c>
       <c r="H41">
-        <v>5000</v>
+        <v>520</v>
       </c>
       <c r="I41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3641</v>
+      </c>
+      <c r="L41" t="s">
+        <v>122</v>
+      </c>
+      <c r="N41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1961,22 +2601,22 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="G42">
-        <v>10000</v>
+        <v>118500</v>
       </c>
       <c r="H42">
-        <v>5000</v>
+        <v>216</v>
       </c>
       <c r="I42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1990,22 +2630,34 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="G43">
-        <v>10000</v>
+        <v>269920</v>
       </c>
       <c r="H43">
-        <v>5000</v>
+        <v>412</v>
       </c>
       <c r="I43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4080</v>
+      </c>
+      <c r="K43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L43" t="s">
+        <v>121</v>
+      </c>
+      <c r="M43" t="s">
+        <v>121</v>
+      </c>
+      <c r="N43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2019,22 +2671,34 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="G44">
-        <v>10000</v>
+        <v>354460</v>
       </c>
       <c r="H44">
-        <v>5000</v>
+        <v>398</v>
       </c>
       <c r="I44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4608</v>
+      </c>
+      <c r="K44" t="s">
+        <v>99</v>
+      </c>
+      <c r="L44" t="s">
+        <v>121</v>
+      </c>
+      <c r="M44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2048,22 +2712,31 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="G45">
-        <v>10000</v>
+        <v>263350</v>
       </c>
       <c r="H45">
-        <v>5000</v>
+        <v>365</v>
       </c>
       <c r="I45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4076</v>
+      </c>
+      <c r="L45" t="s">
+        <v>121</v>
+      </c>
+      <c r="M45" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2077,22 +2750,34 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="G46">
-        <v>10000</v>
+        <v>248356</v>
       </c>
       <c r="H46">
-        <v>5000</v>
+        <v>251</v>
       </c>
       <c r="I46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3990</v>
+      </c>
+      <c r="K46" t="s">
+        <v>98</v>
+      </c>
+      <c r="L46" t="s">
+        <v>121</v>
+      </c>
+      <c r="M46" t="s">
+        <v>121</v>
+      </c>
+      <c r="N46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2109,19 +2794,19 @@
         <v>8</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="G47">
-        <v>10000</v>
+        <v>184000</v>
       </c>
       <c r="H47">
-        <v>5000</v>
+        <v>197</v>
       </c>
       <c r="I47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2135,22 +2820,28 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G48">
-        <v>10000</v>
+        <v>314500</v>
       </c>
       <c r="H48">
-        <v>5000</v>
+        <v>372</v>
       </c>
       <c r="I48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+        <v>4608</v>
+      </c>
+      <c r="M48" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2164,22 +2855,25 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="G49">
-        <v>10000</v>
+        <v>157500</v>
       </c>
       <c r="H49">
-        <v>5000</v>
+        <v>106</v>
       </c>
       <c r="I49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3431</v>
+      </c>
+      <c r="N49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2196,19 +2890,28 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="G50">
-        <v>10000</v>
+        <v>204618</v>
       </c>
       <c r="H50">
-        <v>5000</v>
+        <v>351</v>
       </c>
       <c r="I50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3521</v>
+      </c>
+      <c r="L50" t="s">
+        <v>119</v>
+      </c>
+      <c r="M50" t="s">
+        <v>119</v>
+      </c>
+      <c r="N50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2222,22 +2925,22 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G51">
-        <v>10000</v>
+        <v>74000</v>
       </c>
       <c r="H51">
-        <v>5000</v>
+        <v>103</v>
       </c>
       <c r="I51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2260,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2289,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I53">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -2318,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -2347,13 +3050,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -2376,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I56">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>54</v>
       </c>
@@ -2405,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2434,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>56</v>
       </c>
@@ -2463,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>57</v>
       </c>
@@ -2492,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -2521,13 +3224,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -2550,13 +3253,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>60</v>
       </c>
@@ -2579,14 +3282,15 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I63">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sg02/Assets/Resources/Config/Excel/City.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="122">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,26 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Period01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄巾之乱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,6 +489,10 @@
   </si>
   <si>
     <t>彻里吉</t>
+  </si>
+  <si>
+    <t>Period[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -927,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,19 +955,19 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="N1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -1015,19 +999,19 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1059,19 +1043,19 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1103,10 +1087,10 @@
         <v>2800</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1138,19 +1122,19 @@
         <v>3018</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -1182,19 +1166,19 @@
         <v>3645</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -1226,10 +1210,10 @@
         <v>2966</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -1261,19 +1245,19 @@
         <v>5040</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -1305,19 +1289,19 @@
         <v>4800</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -1349,19 +1333,19 @@
         <v>3832</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -1393,19 +1377,19 @@
         <v>3150</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -1437,19 +1421,19 @@
         <v>3577</v>
       </c>
       <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" t="s">
         <v>102</v>
       </c>
-      <c r="K12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" t="s">
-        <v>107</v>
-      </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -1481,19 +1465,19 @@
         <v>3930</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -1525,19 +1509,19 @@
         <v>4601</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -1569,19 +1553,19 @@
         <v>3315</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -1613,19 +1597,19 @@
         <v>4930</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -1657,7 +1641,7 @@
         <v>3000</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -1689,13 +1673,13 @@
         <v>3221</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -1727,19 +1711,19 @@
         <v>3491</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -1771,13 +1755,13 @@
         <v>3513</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" t="s">
         <v>103</v>
-      </c>
-      <c r="L20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -1809,16 +1793,16 @@
         <v>3723</v>
       </c>
       <c r="J21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" t="s">
         <v>103</v>
       </c>
-      <c r="K21" t="s">
+      <c r="N21" t="s">
         <v>103</v>
-      </c>
-      <c r="L21" t="s">
-        <v>108</v>
-      </c>
-      <c r="N21" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -1850,16 +1834,16 @@
         <v>4717</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -1891,16 +1875,16 @@
         <v>4196</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -1932,13 +1916,13 @@
         <v>4320</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -1970,16 +1954,16 @@
         <v>4777</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -2011,16 +1995,16 @@
         <v>3892</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -2052,16 +2036,16 @@
         <v>5051</v>
       </c>
       <c r="K27" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L27" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -2093,7 +2077,7 @@
         <v>4248</v>
       </c>
       <c r="N28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -2125,16 +2109,16 @@
         <v>3292</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -2166,13 +2150,13 @@
         <v>4083</v>
       </c>
       <c r="K30" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -2204,13 +2188,13 @@
         <v>3127</v>
       </c>
       <c r="L31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -2242,16 +2226,16 @@
         <v>4046</v>
       </c>
       <c r="K32" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -2283,10 +2267,10 @@
         <v>3592</v>
       </c>
       <c r="L33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N33" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -2347,13 +2331,13 @@
         <v>3483</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -2385,16 +2369,16 @@
         <v>4612</v>
       </c>
       <c r="K36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -2426,16 +2410,16 @@
         <v>4057</v>
       </c>
       <c r="J37" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N37" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -2467,13 +2451,13 @@
         <v>3341</v>
       </c>
       <c r="K38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L38" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -2505,13 +2489,13 @@
         <v>3573</v>
       </c>
       <c r="L39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -2543,13 +2527,13 @@
         <v>3881</v>
       </c>
       <c r="L40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -2581,10 +2565,10 @@
         <v>3641</v>
       </c>
       <c r="L41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -2645,16 +2629,16 @@
         <v>4080</v>
       </c>
       <c r="K43" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N43" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -2686,16 +2670,16 @@
         <v>4608</v>
       </c>
       <c r="K44" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -2727,13 +2711,13 @@
         <v>4076</v>
       </c>
       <c r="L45" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M45" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -2765,16 +2749,16 @@
         <v>3990</v>
       </c>
       <c r="K46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -2835,10 +2819,10 @@
         <v>4608</v>
       </c>
       <c r="M48" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N48" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -2870,7 +2854,7 @@
         <v>3431</v>
       </c>
       <c r="N49" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
@@ -2902,13 +2886,13 @@
         <v>3521</v>
       </c>
       <c r="L50" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M50" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N50" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">

--- a/sg02/Assets/Resources/Config/Excel/City.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/City.xlsx
@@ -36,462 +36,462 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Population</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗帜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濮阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘农</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上庸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会稽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庐江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>予章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下弁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梓潼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庐陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄱阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夷州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定陶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨伐董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群雄割据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤壁之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国鼎立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘焉</t>
+  </si>
+  <si>
+    <t>刘焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩馥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶谦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔岫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘繇</t>
+  </si>
+  <si>
+    <t>严白虎</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔瑁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>孙权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘璋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彻里吉</t>
+  </si>
+  <si>
+    <t>预备兵上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ReservistMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Population</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旗帜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预备兵上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>襄平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晋阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>濮阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弘农</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西凉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下邳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许昌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汝南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新野</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>襄阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上庸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江夏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江陵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武陵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零陵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寿春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会稽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庐江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>予章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下弁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梓潼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庐陵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄱阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夷州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐陵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壶关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定陶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官渡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筑阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤壁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合肥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄巾之乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨伐董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群雄割据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤壁之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三国鼎立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张角</t>
-  </si>
-  <si>
-    <t>张角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙坚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙瓒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘焉</t>
-  </si>
-  <si>
-    <t>刘焉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩馥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶谦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔岫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘繇</t>
-  </si>
-  <si>
-    <t>严白虎</t>
-  </si>
-  <si>
-    <t>曹操</t>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备</t>
-  </si>
-  <si>
-    <t>刘备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁绍</t>
-  </si>
-  <si>
-    <t>袁绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔瑁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马腾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王朗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙权</t>
-  </si>
-  <si>
-    <t>孙权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘璋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张鲁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟获</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金旋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彻里吉</t>
-  </si>
-  <si>
-    <t>Period[]</t>
+    <t>Times[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,14 +911,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="13.125" customWidth="1"/>
@@ -943,16 +943,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>121</v>
@@ -972,90 +972,90 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>82</v>
-      </c>
-      <c r="M2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1087,10 +1087,10 @@
         <v>2800</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1098,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1122,19 +1122,19 @@
         <v>3018</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -1142,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1166,19 +1166,19 @@
         <v>3645</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1210,10 +1210,10 @@
         <v>2966</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -1221,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1245,19 +1245,19 @@
         <v>5040</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -1265,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1289,19 +1289,19 @@
         <v>4800</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
         <v>105</v>
       </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
       <c r="M9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -1309,7 +1309,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1333,19 +1333,19 @@
         <v>3832</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -1353,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1377,19 +1377,19 @@
         <v>3150</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -1397,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1421,19 +1421,19 @@
         <v>3577</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -1441,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1465,19 +1465,19 @@
         <v>3930</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1509,19 +1509,19 @@
         <v>4601</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -1529,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1553,19 +1553,19 @@
         <v>3315</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -1573,7 +1573,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1597,19 +1597,19 @@
         <v>4930</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -1617,7 +1617,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1641,7 +1641,7 @@
         <v>3000</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -1649,7 +1649,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1673,13 +1673,13 @@
         <v>3221</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -1687,7 +1687,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1711,19 +1711,19 @@
         <v>3491</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -1731,7 +1731,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1755,13 +1755,13 @@
         <v>3513</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -1769,7 +1769,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1793,16 +1793,16 @@
         <v>3723</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -1810,7 +1810,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1834,16 +1834,16 @@
         <v>4717</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -1851,7 +1851,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1875,16 +1875,16 @@
         <v>4196</v>
       </c>
       <c r="J23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -1892,7 +1892,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1916,13 +1916,13 @@
         <v>4320</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -1930,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1954,16 +1954,16 @@
         <v>4777</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -1971,7 +1971,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1995,16 +1995,16 @@
         <v>3892</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -2012,7 +2012,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -2036,16 +2036,16 @@
         <v>5051</v>
       </c>
       <c r="K27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -2053,7 +2053,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -2077,7 +2077,7 @@
         <v>4248</v>
       </c>
       <c r="N28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -2085,7 +2085,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2109,16 +2109,16 @@
         <v>3292</v>
       </c>
       <c r="K29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M29" t="s">
+        <v>103</v>
+      </c>
+      <c r="N29" t="s">
         <v>112</v>
-      </c>
-      <c r="L29" t="s">
-        <v>112</v>
-      </c>
-      <c r="M29" t="s">
-        <v>105</v>
-      </c>
-      <c r="N29" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -2126,7 +2126,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2150,13 +2150,13 @@
         <v>4083</v>
       </c>
       <c r="K30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -2164,7 +2164,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -2188,13 +2188,13 @@
         <v>3127</v>
       </c>
       <c r="L31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -2202,7 +2202,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -2226,16 +2226,16 @@
         <v>4046</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L32" t="s">
+        <v>110</v>
+      </c>
+      <c r="M32" t="s">
+        <v>103</v>
+      </c>
+      <c r="N32" t="s">
         <v>112</v>
-      </c>
-      <c r="M32" t="s">
-        <v>105</v>
-      </c>
-      <c r="N32" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -2243,7 +2243,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2267,10 +2267,10 @@
         <v>3592</v>
       </c>
       <c r="L33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -2278,7 +2278,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2307,7 +2307,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2331,13 +2331,13 @@
         <v>3483</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -2345,7 +2345,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -2369,16 +2369,16 @@
         <v>4612</v>
       </c>
       <c r="K36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -2386,7 +2386,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -2410,16 +2410,16 @@
         <v>4057</v>
       </c>
       <c r="J37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -2427,7 +2427,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -2451,13 +2451,13 @@
         <v>3341</v>
       </c>
       <c r="K38" t="s">
+        <v>111</v>
+      </c>
+      <c r="L38" t="s">
+        <v>112</v>
+      </c>
+      <c r="M38" t="s">
         <v>113</v>
-      </c>
-      <c r="L38" t="s">
-        <v>114</v>
-      </c>
-      <c r="M38" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -2465,7 +2465,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2489,13 +2489,13 @@
         <v>3573</v>
       </c>
       <c r="L39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -2503,7 +2503,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2527,13 +2527,13 @@
         <v>3881</v>
       </c>
       <c r="L40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -2541,7 +2541,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>3641</v>
       </c>
       <c r="L41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -2576,7 +2576,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2605,7 +2605,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -2629,16 +2629,16 @@
         <v>4080</v>
       </c>
       <c r="K43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -2646,7 +2646,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2670,16 +2670,16 @@
         <v>4608</v>
       </c>
       <c r="K44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -2687,7 +2687,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -2711,13 +2711,13 @@
         <v>4076</v>
       </c>
       <c r="L45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -2725,7 +2725,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2749,16 +2749,16 @@
         <v>3990</v>
       </c>
       <c r="K46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -2766,7 +2766,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2795,7 +2795,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2819,10 +2819,10 @@
         <v>4608</v>
       </c>
       <c r="M48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -2830,7 +2830,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -2854,7 +2854,7 @@
         <v>3431</v>
       </c>
       <c r="N49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
@@ -2862,7 +2862,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2886,13 +2886,13 @@
         <v>3521</v>
       </c>
       <c r="L50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
@@ -2900,7 +2900,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -2929,7 +2929,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63">
         <v>0</v>

--- a/sg02/Assets/Resources/Config/Excel/City.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="209">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,6 +493,273 @@
   <si>
     <t>Times[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Major[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wise[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程远志</t>
+  </si>
+  <si>
+    <t>张宝</t>
+  </si>
+  <si>
+    <t>皇甫嵩</t>
+  </si>
+  <si>
+    <t>华歆</t>
+  </si>
+  <si>
+    <t>孙坚</t>
+  </si>
+  <si>
+    <t>张梁</t>
+  </si>
+  <si>
+    <t>孔岫</t>
+  </si>
+  <si>
+    <t>管亥</t>
+  </si>
+  <si>
+    <t>赵弘</t>
+  </si>
+  <si>
+    <t>郭图</t>
+  </si>
+  <si>
+    <t>华雄</t>
+  </si>
+  <si>
+    <t>李傕</t>
+  </si>
+  <si>
+    <t>糜芳</t>
+  </si>
+  <si>
+    <t>黄祖</t>
+  </si>
+  <si>
+    <t>蔡瑁</t>
+  </si>
+  <si>
+    <t>陈横</t>
+  </si>
+  <si>
+    <t>杨怀</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>审配</t>
+  </si>
+  <si>
+    <t>袁熙</t>
+  </si>
+  <si>
+    <t>袁尚</t>
+  </si>
+  <si>
+    <t>陈琳</t>
+  </si>
+  <si>
+    <t>逢纪</t>
+  </si>
+  <si>
+    <t>袁谭</t>
+  </si>
+  <si>
+    <t>曹洪</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>毛玠</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>马岱</t>
+  </si>
+  <si>
+    <t>曹仁</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>苏飞</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>朱桓</t>
+  </si>
+  <si>
+    <t>孙静</t>
+  </si>
+  <si>
+    <t>周泰</t>
+  </si>
+  <si>
+    <t>凌操</t>
+  </si>
+  <si>
+    <t>吴懿</t>
+  </si>
+  <si>
+    <t>吴兰</t>
+  </si>
+  <si>
+    <t>周瑜</t>
+  </si>
+  <si>
+    <t>公孙康</t>
+  </si>
+  <si>
+    <t>曹休</t>
+  </si>
+  <si>
+    <t>辛毗</t>
+  </si>
+  <si>
+    <t>左贤王</t>
+  </si>
+  <si>
+    <t>曹纯</t>
+  </si>
+  <si>
+    <t>郝昭</t>
+  </si>
+  <si>
+    <t>曹真</t>
+  </si>
+  <si>
+    <t>马腾</t>
+  </si>
+  <si>
+    <t>曹丕</t>
+  </si>
+  <si>
+    <t>金旋</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>张纮</t>
+  </si>
+  <si>
+    <t>董袭</t>
+  </si>
+  <si>
+    <t>刘璋</t>
+  </si>
+  <si>
+    <t>孟获</t>
+  </si>
+  <si>
+    <t>潘璋</t>
+  </si>
+  <si>
+    <t>公孙恭</t>
+  </si>
+  <si>
+    <t>张燕</t>
+  </si>
+  <si>
+    <t>贾逵</t>
+  </si>
+  <si>
+    <t>刘晔</t>
+  </si>
+  <si>
+    <t>王朗</t>
+  </si>
+  <si>
+    <t>曹植</t>
+  </si>
+  <si>
+    <t>侯成</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>张鲁</t>
+  </si>
+  <si>
+    <t>夏侯楙</t>
+  </si>
+  <si>
+    <t>刘封</t>
+  </si>
+  <si>
+    <t>吕蒙</t>
+  </si>
+  <si>
+    <t>韩当</t>
+  </si>
+  <si>
+    <t>张辽</t>
+  </si>
+  <si>
+    <t>孙朗</t>
+  </si>
+  <si>
+    <t>孙韶</t>
+  </si>
+  <si>
+    <t>程普</t>
+  </si>
+  <si>
+    <t>魏延</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>李恢</t>
+  </si>
+  <si>
+    <t>程秉</t>
+  </si>
+  <si>
+    <t>周鲂</t>
   </si>
 </sst>
 </file>
@@ -909,24 +1176,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="14.125" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="10" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="15" width="14" customWidth="1"/>
+    <col min="16" max="18" width="13.125" customWidth="1"/>
+    <col min="19" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -958,19 +1225,49 @@
         <v>121</v>
       </c>
       <c r="K1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M1" t="s">
         <v>121</v>
       </c>
       <c r="N1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="Q1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1002,19 +1299,49 @@
         <v>78</v>
       </c>
       <c r="K2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" t="s">
         <v>79</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" t="s">
         <v>80</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" t="s">
         <v>81</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1046,19 +1373,49 @@
         <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
         <v>83</v>
       </c>
       <c r="N3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="Q3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" t="s">
+        <v>126</v>
+      </c>
+      <c r="X3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1086,14 +1443,26 @@
       <c r="I4">
         <v>2800</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>105</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
+        <v>148</v>
+      </c>
+      <c r="R4" t="s">
+        <v>148</v>
+      </c>
+      <c r="S4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="T4" t="s">
+        <v>171</v>
+      </c>
+      <c r="U4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1128,16 +1497,46 @@
         <v>90</v>
       </c>
       <c r="L5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" t="s">
         <v>105</v>
       </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
+        <v>146</v>
+      </c>
+      <c r="R5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S5" t="s">
         <v>100</v>
       </c>
-      <c r="N5" t="s">
+      <c r="T5" t="s">
+        <v>172</v>
+      </c>
+      <c r="U5" t="s">
+        <v>172</v>
+      </c>
+      <c r="V5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W5" t="s">
+        <v>187</v>
+      </c>
+      <c r="X5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1169,19 +1568,49 @@
         <v>92</v>
       </c>
       <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="s">
         <v>104</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" t="s">
         <v>105</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R6" t="s">
+        <v>147</v>
+      </c>
+      <c r="S6" t="s">
         <v>100</v>
       </c>
-      <c r="N6" t="s">
+      <c r="T6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W6" t="s">
+        <v>173</v>
+      </c>
+      <c r="X6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1209,14 +1638,26 @@
       <c r="I7">
         <v>2966</v>
       </c>
-      <c r="M7" t="s">
+      <c r="S7" t="s">
         <v>100</v>
       </c>
-      <c r="N7" t="s">
+      <c r="T7" t="s">
+        <v>174</v>
+      </c>
+      <c r="U7" t="s">
+        <v>174</v>
+      </c>
+      <c r="V7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W7" t="s">
+        <v>174</v>
+      </c>
+      <c r="X7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1248,19 +1689,49 @@
         <v>86</v>
       </c>
       <c r="K8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>105</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R8" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" t="s">
         <v>100</v>
       </c>
-      <c r="N8" t="s">
+      <c r="T8" t="s">
+        <v>175</v>
+      </c>
+      <c r="U8" t="s">
+        <v>175</v>
+      </c>
+      <c r="V8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W8" t="s">
+        <v>188</v>
+      </c>
+      <c r="X8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1292,19 +1763,49 @@
         <v>86</v>
       </c>
       <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="s">
         <v>103</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="s">
         <v>105</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" t="s">
+        <v>149</v>
+      </c>
+      <c r="R9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S9" t="s">
         <v>100</v>
       </c>
-      <c r="N9" t="s">
+      <c r="T9" t="s">
+        <v>154</v>
+      </c>
+      <c r="U9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W9" t="s">
+        <v>176</v>
+      </c>
+      <c r="X9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1339,16 +1840,46 @@
         <v>93</v>
       </c>
       <c r="L10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" t="s">
         <v>105</v>
       </c>
-      <c r="M10" t="s">
+      <c r="Q10" t="s">
+        <v>150</v>
+      </c>
+      <c r="R10" t="s">
+        <v>150</v>
+      </c>
+      <c r="S10" t="s">
         <v>100</v>
       </c>
-      <c r="N10" t="s">
+      <c r="T10" t="s">
+        <v>131</v>
+      </c>
+      <c r="U10" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1380,19 +1911,49 @@
         <v>94</v>
       </c>
       <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" t="s">
         <v>107</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" t="s">
         <v>105</v>
       </c>
-      <c r="M11" t="s">
+      <c r="Q11" t="s">
+        <v>151</v>
+      </c>
+      <c r="R11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" t="s">
         <v>100</v>
       </c>
-      <c r="N11" t="s">
+      <c r="T11" t="s">
+        <v>149</v>
+      </c>
+      <c r="U11" t="s">
+        <v>149</v>
+      </c>
+      <c r="V11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W11" t="s">
+        <v>160</v>
+      </c>
+      <c r="X11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1424,19 +1985,49 @@
         <v>95</v>
       </c>
       <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="s">
         <v>108</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" t="s">
         <v>101</v>
       </c>
-      <c r="M12" t="s">
+      <c r="Q12" t="s">
+        <v>152</v>
+      </c>
+      <c r="R12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S12" t="s">
         <v>100</v>
       </c>
-      <c r="N12" t="s">
+      <c r="T12" t="s">
+        <v>152</v>
+      </c>
+      <c r="U12" t="s">
+        <v>152</v>
+      </c>
+      <c r="V12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W12" t="s">
+        <v>189</v>
+      </c>
+      <c r="X12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1468,19 +2059,49 @@
         <v>85</v>
       </c>
       <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="s">
         <v>101</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>101</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>153</v>
+      </c>
+      <c r="R13" t="s">
+        <v>153</v>
+      </c>
+      <c r="S13" t="s">
         <v>100</v>
       </c>
-      <c r="N13" t="s">
+      <c r="T13" t="s">
+        <v>176</v>
+      </c>
+      <c r="U13" t="s">
+        <v>176</v>
+      </c>
+      <c r="V13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W13" t="s">
+        <v>190</v>
+      </c>
+      <c r="X13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1512,19 +2133,49 @@
         <v>84</v>
       </c>
       <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" t="s">
         <v>88</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q14" t="s">
+        <v>154</v>
+      </c>
+      <c r="R14" t="s">
+        <v>154</v>
+      </c>
+      <c r="S14" t="s">
         <v>100</v>
       </c>
-      <c r="N14" t="s">
+      <c r="T14" t="s">
+        <v>161</v>
+      </c>
+      <c r="U14" t="s">
+        <v>161</v>
+      </c>
+      <c r="V14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W14" t="s">
+        <v>191</v>
+      </c>
+      <c r="X14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1556,19 +2207,49 @@
         <v>84</v>
       </c>
       <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s">
         <v>88</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" t="s">
         <v>101</v>
       </c>
-      <c r="M15" t="s">
+      <c r="Q15" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" t="s">
+        <v>155</v>
+      </c>
+      <c r="S15" t="s">
         <v>100</v>
       </c>
-      <c r="N15" t="s">
+      <c r="T15" t="s">
+        <v>177</v>
+      </c>
+      <c r="U15" t="s">
+        <v>177</v>
+      </c>
+      <c r="V15" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W15" t="s">
+        <v>192</v>
+      </c>
+      <c r="X15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1600,19 +2281,49 @@
         <v>84</v>
       </c>
       <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="s">
         <v>88</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" t="s">
         <v>101</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q16" t="s">
+        <v>156</v>
+      </c>
+      <c r="R16" t="s">
+        <v>156</v>
+      </c>
+      <c r="S16" t="s">
         <v>101</v>
       </c>
-      <c r="N16" t="s">
+      <c r="T16" t="s">
+        <v>159</v>
+      </c>
+      <c r="U16" t="s">
+        <v>159</v>
+      </c>
+      <c r="V16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W16" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1640,11 +2351,17 @@
       <c r="I17">
         <v>3000</v>
       </c>
-      <c r="N17" t="s">
+      <c r="V17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W17" t="s">
+        <v>193</v>
+      </c>
+      <c r="X17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1672,17 +2389,35 @@
       <c r="I18">
         <v>3221</v>
       </c>
-      <c r="L18" t="s">
+      <c r="P18" t="s">
         <v>109</v>
       </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
+        <v>157</v>
+      </c>
+      <c r="R18" t="s">
+        <v>157</v>
+      </c>
+      <c r="S18" t="s">
         <v>109</v>
       </c>
-      <c r="N18" t="s">
+      <c r="T18" t="s">
+        <v>157</v>
+      </c>
+      <c r="U18" t="s">
+        <v>157</v>
+      </c>
+      <c r="V18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1714,19 +2449,49 @@
         <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s">
         <v>109</v>
       </c>
       <c r="N19" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>109</v>
+      </c>
+      <c r="R19" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" t="s">
+        <v>109</v>
+      </c>
+      <c r="T19" t="s">
+        <v>178</v>
+      </c>
+      <c r="U19" t="s">
+        <v>178</v>
+      </c>
+      <c r="V19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W19" t="s">
+        <v>118</v>
+      </c>
+      <c r="X19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1758,13 +2523,31 @@
         <v>87</v>
       </c>
       <c r="K20" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" t="s">
+        <v>132</v>
+      </c>
+      <c r="M20" t="s">
         <v>96</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="Q20" t="s">
+        <v>158</v>
+      </c>
+      <c r="R20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1799,13 +2582,37 @@
         <v>96</v>
       </c>
       <c r="L21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" t="s">
+        <v>96</v>
+      </c>
+      <c r="P21" t="s">
         <v>101</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" t="s">
+        <v>159</v>
+      </c>
+      <c r="R21" t="s">
+        <v>159</v>
+      </c>
+      <c r="V21" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W21" t="s">
+        <v>152</v>
+      </c>
+      <c r="X21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1836,17 +2643,41 @@
       <c r="J22" t="s">
         <v>85</v>
       </c>
+      <c r="K22" t="s">
+        <v>133</v>
+      </c>
       <c r="L22" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" t="s">
         <v>101</v>
       </c>
-      <c r="M22" t="s">
+      <c r="Q22" t="s">
         <v>101</v>
       </c>
-      <c r="N22" t="s">
+      <c r="R22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="S22" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" t="s">
+        <v>179</v>
+      </c>
+      <c r="U22" t="s">
+        <v>179</v>
+      </c>
+      <c r="V22" t="s">
+        <v>101</v>
+      </c>
+      <c r="W22" t="s">
+        <v>179</v>
+      </c>
+      <c r="X22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1878,16 +2709,40 @@
         <v>97</v>
       </c>
       <c r="K23" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" t="s">
         <v>97</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
+        <v>97</v>
+      </c>
+      <c r="O23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" t="s">
         <v>101</v>
       </c>
-      <c r="N23" t="s">
+      <c r="Q23" t="s">
+        <v>160</v>
+      </c>
+      <c r="R23" t="s">
+        <v>160</v>
+      </c>
+      <c r="V23" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W23" t="s">
+        <v>195</v>
+      </c>
+      <c r="X23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1918,14 +2773,32 @@
       <c r="J24" t="s">
         <v>85</v>
       </c>
+      <c r="K24" t="s">
+        <v>135</v>
+      </c>
       <c r="L24" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" t="s">
         <v>101</v>
       </c>
-      <c r="N24" t="s">
+      <c r="Q24" t="s">
+        <v>161</v>
+      </c>
+      <c r="R24" t="s">
+        <v>161</v>
+      </c>
+      <c r="V24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W24" t="s">
+        <v>177</v>
+      </c>
+      <c r="X24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1957,16 +2830,40 @@
         <v>85</v>
       </c>
       <c r="K25" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" t="s">
         <v>106</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" t="s">
+        <v>106</v>
+      </c>
+      <c r="S25" t="s">
         <v>101</v>
       </c>
-      <c r="N25" t="s">
+      <c r="T25" t="s">
+        <v>158</v>
+      </c>
+      <c r="U25" t="s">
+        <v>158</v>
+      </c>
+      <c r="V25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W25" t="s">
+        <v>196</v>
+      </c>
+      <c r="X25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1997,17 +2894,41 @@
       <c r="J26" t="s">
         <v>89</v>
       </c>
+      <c r="K26" t="s">
+        <v>89</v>
+      </c>
       <c r="L26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" t="s">
         <v>103</v>
       </c>
-      <c r="M26" t="s">
+      <c r="Q26" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" t="s">
+        <v>103</v>
+      </c>
+      <c r="S26" t="s">
         <v>100</v>
       </c>
-      <c r="N26" t="s">
+      <c r="T26" t="s">
+        <v>153</v>
+      </c>
+      <c r="U26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V26" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W26" t="s">
+        <v>156</v>
+      </c>
+      <c r="X26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2035,20 +2956,44 @@
       <c r="I27">
         <v>5051</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>110</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>110</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
+        <v>110</v>
+      </c>
+      <c r="P27" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S27" t="s">
         <v>100</v>
       </c>
-      <c r="N27" t="s">
+      <c r="T27" t="s">
+        <v>100</v>
+      </c>
+      <c r="U27" t="s">
+        <v>100</v>
+      </c>
+      <c r="V27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W27" t="s">
+        <v>158</v>
+      </c>
+      <c r="X27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2076,11 +3021,17 @@
       <c r="I28">
         <v>4248</v>
       </c>
-      <c r="N28" t="s">
+      <c r="V28" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W28" t="s">
+        <v>197</v>
+      </c>
+      <c r="X28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2108,20 +3059,44 @@
       <c r="I29">
         <v>3292</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>110</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" t="s">
+        <v>141</v>
+      </c>
+      <c r="O29" t="s">
+        <v>141</v>
+      </c>
+      <c r="P29" t="s">
         <v>110</v>
       </c>
-      <c r="M29" t="s">
+      <c r="Q29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R29" t="s">
+        <v>141</v>
+      </c>
+      <c r="S29" t="s">
         <v>103</v>
       </c>
-      <c r="N29" t="s">
+      <c r="T29" t="s">
+        <v>102</v>
+      </c>
+      <c r="U29" t="s">
+        <v>102</v>
+      </c>
+      <c r="V29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W29" t="s">
+        <v>198</v>
+      </c>
+      <c r="X29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2149,17 +3124,44 @@
       <c r="I30">
         <v>4083</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>110</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
+        <v>142</v>
+      </c>
+      <c r="O30" t="s">
+        <v>142</v>
+      </c>
+      <c r="P30" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>142</v>
+      </c>
+      <c r="R30" t="s">
+        <v>142</v>
+      </c>
+      <c r="S30" t="s">
         <v>101</v>
       </c>
-      <c r="N30" t="s">
+      <c r="T30" t="s">
+        <v>156</v>
+      </c>
+      <c r="U30" t="s">
+        <v>156</v>
+      </c>
+      <c r="V30" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W30" t="s">
+        <v>181</v>
+      </c>
+      <c r="X30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2187,17 +3189,35 @@
       <c r="I31">
         <v>3127</v>
       </c>
-      <c r="L31" t="s">
+      <c r="P31" t="s">
         <v>110</v>
       </c>
-      <c r="M31" t="s">
+      <c r="Q31" t="s">
+        <v>162</v>
+      </c>
+      <c r="R31" t="s">
+        <v>162</v>
+      </c>
+      <c r="S31" t="s">
         <v>117</v>
       </c>
-      <c r="N31" t="s">
+      <c r="T31" t="s">
+        <v>180</v>
+      </c>
+      <c r="U31" t="s">
+        <v>180</v>
+      </c>
+      <c r="V31" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W31" t="s">
+        <v>140</v>
+      </c>
+      <c r="X31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2225,20 +3245,44 @@
       <c r="I32">
         <v>4046</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>87</v>
       </c>
-      <c r="L32" t="s">
+      <c r="N32" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" t="s">
         <v>110</v>
       </c>
-      <c r="M32" t="s">
+      <c r="Q32" t="s">
+        <v>163</v>
+      </c>
+      <c r="R32" t="s">
+        <v>163</v>
+      </c>
+      <c r="S32" t="s">
         <v>103</v>
       </c>
-      <c r="N32" t="s">
+      <c r="T32" t="s">
+        <v>181</v>
+      </c>
+      <c r="U32" t="s">
+        <v>181</v>
+      </c>
+      <c r="V32" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W32" t="s">
+        <v>165</v>
+      </c>
+      <c r="X32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2266,14 +3310,17 @@
       <c r="I33">
         <v>3592</v>
       </c>
-      <c r="L33" t="s">
-        <v>110</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="V33" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W33" t="s">
+        <v>199</v>
+      </c>
+      <c r="X33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2302,7 +3349,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2336,11 +3383,29 @@
       <c r="K35" t="s">
         <v>98</v>
       </c>
+      <c r="L35" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" t="s">
+        <v>98</v>
+      </c>
       <c r="N35" t="s">
+        <v>98</v>
+      </c>
+      <c r="O35" t="s">
+        <v>98</v>
+      </c>
+      <c r="V35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W35" t="s">
+        <v>200</v>
+      </c>
+      <c r="X35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2368,20 +3433,44 @@
       <c r="I36">
         <v>4612</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
         <v>98</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
+        <v>143</v>
+      </c>
+      <c r="O36" t="s">
+        <v>143</v>
+      </c>
+      <c r="P36" t="s">
         <v>113</v>
       </c>
-      <c r="M36" t="s">
+      <c r="Q36" t="s">
         <v>113</v>
       </c>
-      <c r="N36" t="s">
+      <c r="R36" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="S36" t="s">
+        <v>113</v>
+      </c>
+      <c r="T36" t="s">
+        <v>182</v>
+      </c>
+      <c r="U36" t="s">
+        <v>182</v>
+      </c>
+      <c r="V36" t="s">
+        <v>113</v>
+      </c>
+      <c r="W36" t="s">
+        <v>112</v>
+      </c>
+      <c r="X36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2415,14 +3504,47 @@
       <c r="K37" t="s">
         <v>99</v>
       </c>
+      <c r="L37" t="s">
+        <v>99</v>
+      </c>
       <c r="M37" t="s">
+        <v>99</v>
+      </c>
+      <c r="N37" t="s">
+        <v>99</v>
+      </c>
+      <c r="O37" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>164</v>
+      </c>
+      <c r="R37" t="s">
+        <v>164</v>
+      </c>
+      <c r="S37" t="s">
         <v>113</v>
       </c>
-      <c r="N37" t="s">
+      <c r="T37" t="s">
+        <v>183</v>
+      </c>
+      <c r="U37" t="s">
+        <v>183</v>
+      </c>
+      <c r="V37" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W37" t="s">
+        <v>201</v>
+      </c>
+      <c r="X37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2450,17 +3572,35 @@
       <c r="I38">
         <v>3341</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>111</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
+        <v>111</v>
+      </c>
+      <c r="O38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" t="s">
         <v>112</v>
       </c>
-      <c r="M38" t="s">
+      <c r="Q38" t="s">
+        <v>165</v>
+      </c>
+      <c r="R38" t="s">
+        <v>165</v>
+      </c>
+      <c r="S38" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="T38" t="s">
+        <v>164</v>
+      </c>
+      <c r="U38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2488,17 +3628,35 @@
       <c r="I39">
         <v>3573</v>
       </c>
-      <c r="L39" t="s">
+      <c r="P39" t="s">
         <v>112</v>
       </c>
-      <c r="M39" t="s">
+      <c r="Q39" t="s">
+        <v>166</v>
+      </c>
+      <c r="R39" t="s">
+        <v>166</v>
+      </c>
+      <c r="S39" t="s">
         <v>113</v>
       </c>
-      <c r="N39" t="s">
+      <c r="T39" t="s">
+        <v>170</v>
+      </c>
+      <c r="U39" t="s">
+        <v>170</v>
+      </c>
+      <c r="V39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W39" t="s">
+        <v>202</v>
+      </c>
+      <c r="X39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2526,17 +3684,35 @@
       <c r="I40">
         <v>3881</v>
       </c>
-      <c r="L40" t="s">
+      <c r="P40" t="s">
         <v>112</v>
       </c>
-      <c r="M40" t="s">
+      <c r="Q40" t="s">
+        <v>167</v>
+      </c>
+      <c r="R40" t="s">
+        <v>167</v>
+      </c>
+      <c r="S40" t="s">
         <v>113</v>
       </c>
-      <c r="N40" t="s">
+      <c r="T40" t="s">
+        <v>112</v>
+      </c>
+      <c r="U40" t="s">
+        <v>112</v>
+      </c>
+      <c r="V40" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W40" t="s">
+        <v>203</v>
+      </c>
+      <c r="X40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2564,14 +3740,26 @@
       <c r="I41">
         <v>3641</v>
       </c>
-      <c r="L41" t="s">
+      <c r="P41" t="s">
         <v>115</v>
       </c>
-      <c r="N41" t="s">
+      <c r="Q41" t="s">
+        <v>115</v>
+      </c>
+      <c r="R41" t="s">
+        <v>115</v>
+      </c>
+      <c r="V41" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W41" t="s">
+        <v>204</v>
+      </c>
+      <c r="X41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2600,7 +3788,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2628,20 +3816,44 @@
       <c r="I43">
         <v>4080</v>
       </c>
-      <c r="K43" t="s">
+      <c r="M43" t="s">
         <v>92</v>
       </c>
-      <c r="L43" t="s">
+      <c r="N43" t="s">
+        <v>144</v>
+      </c>
+      <c r="O43" t="s">
+        <v>144</v>
+      </c>
+      <c r="P43" t="s">
         <v>114</v>
       </c>
-      <c r="M43" t="s">
+      <c r="Q43" t="s">
+        <v>168</v>
+      </c>
+      <c r="R43" t="s">
+        <v>168</v>
+      </c>
+      <c r="S43" t="s">
         <v>114</v>
       </c>
-      <c r="N43" t="s">
+      <c r="T43" t="s">
+        <v>168</v>
+      </c>
+      <c r="U43" t="s">
+        <v>168</v>
+      </c>
+      <c r="V43" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W43" t="s">
+        <v>205</v>
+      </c>
+      <c r="X43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2669,20 +3881,44 @@
       <c r="I44">
         <v>4608</v>
       </c>
-      <c r="K44" t="s">
+      <c r="M44" t="s">
         <v>92</v>
       </c>
-      <c r="L44" t="s">
+      <c r="N44" t="s">
+        <v>92</v>
+      </c>
+      <c r="O44" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" t="s">
         <v>114</v>
       </c>
-      <c r="M44" t="s">
+      <c r="Q44" t="s">
         <v>114</v>
       </c>
-      <c r="N44" t="s">
+      <c r="R44" t="s">
+        <v>114</v>
+      </c>
+      <c r="S44" t="s">
+        <v>114</v>
+      </c>
+      <c r="T44" t="s">
+        <v>184</v>
+      </c>
+      <c r="U44" t="s">
+        <v>184</v>
+      </c>
+      <c r="V44" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W44" t="s">
+        <v>102</v>
+      </c>
+      <c r="X44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2710,17 +3946,35 @@
       <c r="I45">
         <v>4076</v>
       </c>
-      <c r="L45" t="s">
+      <c r="P45" t="s">
         <v>114</v>
       </c>
-      <c r="M45" t="s">
+      <c r="Q45" t="s">
+        <v>169</v>
+      </c>
+      <c r="R45" t="s">
+        <v>169</v>
+      </c>
+      <c r="S45" t="s">
         <v>114</v>
       </c>
-      <c r="N45" t="s">
+      <c r="T45" t="s">
+        <v>145</v>
+      </c>
+      <c r="U45" t="s">
+        <v>145</v>
+      </c>
+      <c r="V45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W45" t="s">
+        <v>145</v>
+      </c>
+      <c r="X45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2748,20 +4002,44 @@
       <c r="I46">
         <v>3990</v>
       </c>
-      <c r="K46" t="s">
+      <c r="M46" t="s">
         <v>91</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N46" t="s">
+        <v>145</v>
+      </c>
+      <c r="O46" t="s">
+        <v>145</v>
+      </c>
+      <c r="P46" t="s">
         <v>114</v>
       </c>
-      <c r="M46" t="s">
+      <c r="Q46" t="s">
+        <v>145</v>
+      </c>
+      <c r="R46" t="s">
+        <v>145</v>
+      </c>
+      <c r="S46" t="s">
         <v>114</v>
       </c>
-      <c r="N46" t="s">
+      <c r="T46" t="s">
+        <v>169</v>
+      </c>
+      <c r="U46" t="s">
+        <v>169</v>
+      </c>
+      <c r="V46" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W46" t="s">
+        <v>206</v>
+      </c>
+      <c r="X46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2790,7 +4068,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2818,14 +4096,26 @@
       <c r="I48">
         <v>4608</v>
       </c>
-      <c r="M48" t="s">
+      <c r="S48" t="s">
         <v>116</v>
       </c>
-      <c r="N48" t="s">
+      <c r="T48" t="s">
+        <v>185</v>
+      </c>
+      <c r="U48" t="s">
+        <v>185</v>
+      </c>
+      <c r="V48" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W48" t="s">
+        <v>185</v>
+      </c>
+      <c r="X48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2853,11 +4143,17 @@
       <c r="I49">
         <v>3431</v>
       </c>
-      <c r="N49" t="s">
+      <c r="V49" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W49" t="s">
+        <v>207</v>
+      </c>
+      <c r="X49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2885,17 +4181,35 @@
       <c r="I50">
         <v>3521</v>
       </c>
-      <c r="L50" t="s">
+      <c r="P50" t="s">
         <v>112</v>
       </c>
-      <c r="M50" t="s">
+      <c r="Q50" t="s">
+        <v>170</v>
+      </c>
+      <c r="R50" t="s">
+        <v>170</v>
+      </c>
+      <c r="S50" t="s">
         <v>112</v>
       </c>
-      <c r="N50" t="s">
+      <c r="T50" t="s">
+        <v>186</v>
+      </c>
+      <c r="U50" t="s">
+        <v>186</v>
+      </c>
+      <c r="V50" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="W50" t="s">
+        <v>208</v>
+      </c>
+      <c r="X50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2924,7 +4238,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2953,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2982,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -3011,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -3040,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -3069,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>54</v>
       </c>
@@ -3098,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -3127,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>56</v>
       </c>
@@ -3156,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>57</v>
       </c>
@@ -3185,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -3214,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -3243,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>60</v>
       </c>
